--- a/Bill of Materials/FusIon Pack.xlsx
+++ b/Bill of Materials/FusIon Pack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents - HDD\KiCad\FusIon Pack\Bill of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents - HDD\Projects\FusIon-Pack\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Fusion Pack Rev 0-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="FusIon_Pack" localSheetId="0">'Fusion Pack Rev 0-1'!$A$1:$J$53</definedName>
+    <definedName name="FusIon_Pack" localSheetId="0">'Fusion Pack Rev 0-1'!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="263">
   <si>
     <t>Designator</t>
   </si>
@@ -73,9 +73,6 @@
     <t>12V</t>
   </si>
   <si>
-    <t>R_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -127,12 +124,6 @@
     <t>PinHeader_2x05_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>USB_BOARD</t>
-  </si>
-  <si>
-    <t>Conn_01x05_Male</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>100K</t>
   </si>
   <si>
-    <t>R_2512_6332Metric_Pad1.52x3.35mm_HandSolder</t>
-  </si>
-  <si>
     <t>200R 1W</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>R78</t>
   </si>
   <si>
-    <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P7.62mm_Horizontal</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>R92,R95,R102</t>
-  </si>
-  <si>
     <t>20mR 3/4W</t>
   </si>
   <si>
@@ -199,27 +181,12 @@
     <t>15R</t>
   </si>
   <si>
-    <t>R100</t>
-  </si>
-  <si>
-    <t>1K 1%</t>
-  </si>
-  <si>
     <t>R107</t>
   </si>
   <si>
-    <t>R109,R116,R123</t>
-  </si>
-  <si>
     <t>10M</t>
   </si>
   <si>
-    <t>R111,R112,R114</t>
-  </si>
-  <si>
-    <t>10K 1%</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -232,63 +199,39 @@
     <t>U1</t>
   </si>
   <si>
-    <t>TSSOP-30_4.4x7.8mm_P0.5mm</t>
-  </si>
-  <si>
     <t>BQ76930</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>LQFP-64_10x10mm_P0.5mm</t>
-  </si>
-  <si>
     <t>STM32F072RBTx</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
     <t>AP2114H-3.3TRG1</t>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
-    <t>SOIJ-8_5.3x5.3mm_P1.27mm</t>
-  </si>
-  <si>
     <t>W25Q16JVSSIQ</t>
   </si>
   <si>
-    <t>U7,U9</t>
-  </si>
-  <si>
-    <t>SOT-23-5_HandSoldering</t>
-  </si>
-  <si>
     <t>ZXCT108x</t>
   </si>
   <si>
     <t>U8</t>
   </si>
   <si>
-    <t>TSSOP-16-1EP_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
     <t>LTC3783</t>
   </si>
   <si>
     <t>U10</t>
   </si>
   <si>
-    <t>TSSOP-16_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
     <t>BQ76200</t>
   </si>
   <si>
@@ -313,9 +256,6 @@
     <t>D43</t>
   </si>
   <si>
-    <t>6V2</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -325,21 +265,12 @@
     <t>J4</t>
   </si>
   <si>
-    <t>JST_XH_B05B-XH-A_1x05_P2.50mm_Vertical</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>JST_XH_B04B-XH-A_1x04_P2.50mm_Vertical</t>
-  </si>
-  <si>
     <t>B4B-XH-A(LF)(SN)</t>
   </si>
   <si>
-    <t>Q19,Q22,Q23</t>
-  </si>
-  <si>
     <t>DMPH6050SK3</t>
   </si>
   <si>
@@ -355,9 +286,6 @@
     <t>TO-252-2 (D-PAK)</t>
   </si>
   <si>
-    <t>Notes For Replacement</t>
-  </si>
-  <si>
     <t>&gt;~75Vds, Similar Rds_on or lower, Similar Vgs_th or lower, Similar Qg or lower</t>
   </si>
   <si>
@@ -382,9 +310,6 @@
     <t>D39, D33, D36, D40, D41</t>
   </si>
   <si>
-    <t>R54, R22, R24, R26, R28, R30, R33, R35, R37, R39, R41, R48, R49, R57, R59, R60, R63, R64, R65, R67, R69, R70, R71, R72, R73, R80, R93, R97</t>
-  </si>
-  <si>
     <t>C17, C18, C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C21, C28, C29, C30, C32, C42, C43, C46, C47, C49, C53, C55, C60, C64, C65, C66, C67</t>
   </si>
   <si>
@@ -559,9 +484,6 @@
     <t>5% Tolerance or Better, &gt;=0.6W</t>
   </si>
   <si>
-    <t>R21, R23, R25, R27, R29, R31, R32, R34, R36, R38, R40, R42, R43, R55, R56, R68, R82, R85, R104, R108, R130</t>
-  </si>
-  <si>
     <t>RMCF0805FG1M00</t>
   </si>
   <si>
@@ -590,6 +512,324 @@
   </si>
   <si>
     <t>R52, R53, R75, R76, R81, R106, R110, R115, R122, R129</t>
+  </si>
+  <si>
+    <t>RMCF0805JT100R</t>
+  </si>
+  <si>
+    <t>&gt;=1/10W, pretty much anything tbh</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Axial Resistor for alternative LED Button Voltage</t>
+  </si>
+  <si>
+    <t>Compensation resistor, will figure out value</t>
+  </si>
+  <si>
+    <t>PE2512FKE7W0R02L</t>
+  </si>
+  <si>
+    <t>&gt;=0.75W, 1%, &lt;75ppm/C temp co ideally</t>
+  </si>
+  <si>
+    <t>Opt. Gate resistor for boost converter, pretty much anything tbh</t>
+  </si>
+  <si>
+    <t>R21, R23, R25, R27, R29, R31, R32, R34, R36, R38, R40, R42, R43, R55, R56, R68, R82, R85, R100, R104, R108, R130</t>
+  </si>
+  <si>
+    <t>WSLF25122L000FEB</t>
+  </si>
+  <si>
+    <t>~4W Min, 1%, &lt;75ppm/C temp co ideally</t>
+  </si>
+  <si>
+    <t>1/4W Axial</t>
+  </si>
+  <si>
+    <t>R92, R95, R102</t>
+  </si>
+  <si>
+    <t>R109, R116, R123</t>
+  </si>
+  <si>
+    <t>RMCF0805JT10M0</t>
+  </si>
+  <si>
+    <t>Basically anything really</t>
+  </si>
+  <si>
+    <t>R54, R22, R24, R26, R28, R30, R33, R35, R37, R39, R41, R48, R49, R57, R59, R60, R63, R64, R65, R67, R69, R70, R71, R72, R73, R80, R93, R97, R111, R112, R114</t>
+  </si>
+  <si>
+    <t>PTS641SP25SMTR2LFS</t>
+  </si>
+  <si>
+    <t>Only for development--doesn't clear case lid</t>
+  </si>
+  <si>
+    <t>BQ7693006DBTR</t>
+  </si>
+  <si>
+    <t>TSSOP-30</t>
+  </si>
+  <si>
+    <t>LQFP-64</t>
+  </si>
+  <si>
+    <t>STM32F072RBT6</t>
+  </si>
+  <si>
+    <t>If ST makes pin compatible, peripheral compatible microcontrollers, it might work (may require code adaptation)</t>
+  </si>
+  <si>
+    <t>16MBit, Same pinout, Same functionality, ~8MHz SPI Capable</t>
+  </si>
+  <si>
+    <t>SOIC-8 (5.3mm)</t>
+  </si>
+  <si>
+    <t>SOT-25</t>
+  </si>
+  <si>
+    <t>U7, U9</t>
+  </si>
+  <si>
+    <t>ZXCT1084E5TA</t>
+  </si>
+  <si>
+    <t>&gt;=42V common mode MINIMUM; 25x gain; same pinout</t>
+  </si>
+  <si>
+    <t>TSSOP-16_EP</t>
+  </si>
+  <si>
+    <t>LTC3783EFE#PBF</t>
+  </si>
+  <si>
+    <t>TSSOP-16</t>
+  </si>
+  <si>
+    <t>BQ76200PWR</t>
+  </si>
+  <si>
+    <t>VSSAF510-M3/H</t>
+  </si>
+  <si>
+    <t>5A If, 50V Vr, Shottky, Low Vf Preferrable</t>
+  </si>
+  <si>
+    <t>3.0SMI58ATR</t>
+  </si>
+  <si>
+    <t>So I'm not 100% sure, Vr 55~60V, &gt;=1.8kW Peak Power Pulse (look at TI application circuit for BQ76930 for an idea)</t>
+  </si>
+  <si>
+    <t>&gt;=5Vin, 250mA continuous output, 1117 regulator compatible</t>
+  </si>
+  <si>
+    <t>SMAJ5920B-TP</t>
+  </si>
+  <si>
+    <t>6.2V</t>
+  </si>
+  <si>
+    <t>6.2V, &gt;=1.5W Rated Power</t>
+  </si>
+  <si>
+    <t>MC7805CD2TG</t>
+  </si>
+  <si>
+    <t>7805 Compatible footprint, &gt;=15Vin, 5Vout, 250mA continuous output current</t>
+  </si>
+  <si>
+    <t>B5B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>05x2.5mm Header</t>
+  </si>
+  <si>
+    <t>04x2.5mm Header</t>
+  </si>
+  <si>
+    <t>5-pin JST-XH connector (just like for 4S LiPo balance connector)</t>
+  </si>
+  <si>
+    <t>4-pin JST-XH connector (just like for 3S LiPo balance connector)</t>
+  </si>
+  <si>
+    <t>Q19, Q22, Q23</t>
+  </si>
+  <si>
+    <t>DMPH6050SK3-13</t>
+  </si>
+  <si>
+    <t>&gt;=60Vds, &lt;=~80mOhm RdsOn, &gt;=12Vgs</t>
+  </si>
+  <si>
+    <t>5248-RC</t>
+  </si>
+  <si>
+    <t>Average Current Rating &gt;5A; Saturation Current &gt;5.5A (tested at 150kHz ideally)</t>
+  </si>
+  <si>
+    <t>US18650VTC4</t>
+  </si>
+  <si>
+    <t>C2012X7S2A105K125AE</t>
+  </si>
+  <si>
+    <t>885342207005</t>
+  </si>
+  <si>
+    <t>CL21B104KBFNNNE</t>
+  </si>
+  <si>
+    <t>GRT31CR61H106ME01L</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL21A475KPFNNNE</t>
+  </si>
+  <si>
+    <t>RNU1J330MDN1KX</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
+  </si>
+  <si>
+    <t>MM3Z5V1ST1G</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>1N4448W-TP</t>
+  </si>
+  <si>
+    <t>Micro Commercial Co</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductor</t>
+  </si>
+  <si>
+    <t>PDZ12BGWJ</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>SMC Diode Solutions</t>
+  </si>
+  <si>
+    <t>0456040.DR</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>05x02</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>Japan Solderless Terminals</t>
+  </si>
+  <si>
+    <t>Changzhou Amass Elec.</t>
+  </si>
+  <si>
+    <t>Abracon LLC</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>IPD60N10S4L12ATMA1</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERT-J1VR103G</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>ST Microelectronics</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>ATA6561-GAQW-N</t>
+  </si>
+  <si>
+    <t>Winbond Electronics</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>BOM Total</t>
+  </si>
+  <si>
+    <t>w/o Batteries</t>
+  </si>
+  <si>
+    <t>Notes For Substitution</t>
+  </si>
+  <si>
+    <t>BQ7693000DBT[R]; BQ7693002DBT[R]; BQ7693006DBT[R]; (LDO Voltage shouldn't matter, Different I2C Addresses)</t>
   </si>
 </sst>
 </file>
@@ -599,7 +839,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +978,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1086,7 +1333,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1095,6 +1342,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1422,13 +1681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -1436,520 +1695,668 @@
     <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.5</v>
       </c>
       <c r="E2" s="4">
         <f>C2*D2</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="4">
+        <f>C3*D3</f>
+        <v>3.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <f>C4*D4</f>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5">
         <v>31</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E53" si="0">C3*D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D5" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <f>C5*D5</f>
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E6" s="4">
+        <f>C6*D6</f>
+        <v>1.71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
         <v>108</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" s="4">
+        <v>0.13</v>
+      </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
+        <f>C7*D7</f>
+        <v>0.78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <f>C8*D8</f>
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="E9" s="4">
+        <f>C9*D9</f>
+        <v>5.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="4">
+        <f>C10*D10</f>
+        <v>2.16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <f>C11*D11</f>
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E12" s="4">
+        <f>C12*D12</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="E13" s="4">
+        <f>C13*D13</f>
+        <v>0.43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="E14" s="4">
+        <f>C14*D14</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="E15" s="4">
+        <f>C15*D15</f>
+        <v>0.66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="E16" s="4">
+        <f>C16*D16</f>
+        <v>0.46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4.78</v>
+      </c>
+      <c r="E17" s="4">
+        <f>C17*D17</f>
+        <v>4.78</v>
+      </c>
+      <c r="F17" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G17" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="E18" s="4">
+        <f>C18*D18</f>
+        <v>0.27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="I18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>2.16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <v>4.78</v>
+        <v>0.21</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>4.78</v>
+        <f>C19*D19</f>
+        <v>0.21</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27</v>
+        <f>C20*D20</f>
+        <v>0.25</v>
       </c>
       <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1958,28 +2365,31 @@
         <v>0.45</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="0"/>
+        <f>C21*D21</f>
         <v>0.45</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -1988,547 +2398,835 @@
         <v>0.04</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="0"/>
+        <f>C22*D22</f>
         <v>0.44</v>
       </c>
       <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="E23" s="4">
+        <f>C23*D23</f>
+        <v>2.14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E24" s="4">
+        <f>C24*D24</f>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E25" s="4">
+        <f>C25*D25</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="E26" s="4">
+        <f>C26*D26</f>
+        <v>1.83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E27" s="4">
+        <f>C27*D27</f>
+        <v>11.747999999999999</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E28" s="4">
+        <f>C28*D28</f>
+        <v>0.26</v>
+      </c>
+      <c r="F28" t="s">
         <v>33</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G28" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E29" s="4">
+        <f>C29*D29</f>
+        <v>0.92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3.3333300000000003E-2</v>
+      </c>
+      <c r="E30" s="4">
+        <f>C30*D30</f>
+        <v>9.9999900000000003E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.191</v>
+      </c>
+      <c r="E31" s="4">
+        <f>C31*D31</f>
+        <v>2.101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E32" s="4">
+        <f>C32*D32</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f>C33*D33</f>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.254</v>
+      </c>
+      <c r="E34" s="4">
+        <f>C34*D34</f>
+        <v>3.81</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E35" s="4">
+        <f>C35*D35</f>
+        <v>0.2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E36" s="4">
+        <f>C36*D36</f>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <f>C37*D37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="I37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.191</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>2.101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="0"/>
-        <v>3.81</v>
-      </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G28" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B38" s="5" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="0"/>
+        <f>C38*D38</f>
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.56999999999999995</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C39*D39</f>
+        <v>1.71</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="0"/>
+        <f>C40*D40</f>
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
+      <c r="D41" s="4">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C41*D41</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E42" s="4">
+        <f>C42*D42</f>
+        <v>1.218</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
+      <c r="D43" s="4">
+        <v>4.66</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C43*D43</f>
+        <v>4.66</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="D44" s="4">
+        <v>2.33</v>
+      </c>
       <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C44*D44</f>
+        <v>2.33</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
+      <c r="D45" s="4">
+        <v>4.21</v>
+      </c>
       <c r="E45" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C45*D45</f>
+        <v>4.21</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
+      <c r="D46" s="4">
+        <v>0.66</v>
+      </c>
       <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C46*D46</f>
+        <v>0.66</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
+      <c r="D47" s="4">
+        <v>0.36</v>
+      </c>
       <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C47*D47</f>
+        <v>0.36</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>84</v>
@@ -2536,137 +3234,202 @@
       <c r="C48">
         <v>1</v>
       </c>
+      <c r="D48" s="4">
+        <v>0.54</v>
+      </c>
       <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C48*D48</f>
+        <v>0.54</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
+      <c r="D49" s="4">
+        <v>0.49</v>
+      </c>
       <c r="E49" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C49*D49</f>
+        <v>0.49</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1.47</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C50*D50</f>
+        <v>2.94</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
+      <c r="D51" s="4">
+        <v>6</v>
+      </c>
       <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>C51*D51</f>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
+        <v>61</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="9">
+        <f>SUM(E2:E51)</f>
+        <v>166.79699989999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="4">
+        <f>E53-85</f>
+        <v>81.796999899999946</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J54">
+    <sortCondition ref="A1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="I4" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
-    <hyperlink ref="I10" r:id="rId11"/>
-    <hyperlink ref="H11" r:id="rId12"/>
-    <hyperlink ref="H12" r:id="rId13"/>
-    <hyperlink ref="H13" r:id="rId14"/>
-    <hyperlink ref="H14" r:id="rId15"/>
-    <hyperlink ref="H16" r:id="rId16"/>
-    <hyperlink ref="H17" r:id="rId17"/>
-    <hyperlink ref="H18" r:id="rId18"/>
-    <hyperlink ref="H19" r:id="rId19"/>
-    <hyperlink ref="I19" r:id="rId20"/>
-    <hyperlink ref="H20" r:id="rId21"/>
-    <hyperlink ref="H21" r:id="rId22"/>
-    <hyperlink ref="H22" r:id="rId23"/>
-    <hyperlink ref="H23" r:id="rId24"/>
-    <hyperlink ref="H24" r:id="rId25"/>
-    <hyperlink ref="H25" r:id="rId26"/>
-    <hyperlink ref="H26" r:id="rId27"/>
-    <hyperlink ref="H27" r:id="rId28"/>
-    <hyperlink ref="H28" r:id="rId29"/>
+    <hyperlink ref="I27" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I48" r:id="rId3"/>
+    <hyperlink ref="J48" r:id="rId4"/>
+    <hyperlink ref="I14" r:id="rId5"/>
+    <hyperlink ref="I36" r:id="rId6"/>
+    <hyperlink ref="I12" r:id="rId7"/>
+    <hyperlink ref="I24" r:id="rId8"/>
+    <hyperlink ref="I42" r:id="rId9"/>
+    <hyperlink ref="I2" r:id="rId10"/>
+    <hyperlink ref="J2" r:id="rId11"/>
+    <hyperlink ref="I3" r:id="rId12"/>
+    <hyperlink ref="I4" r:id="rId13"/>
+    <hyperlink ref="I6" r:id="rId14"/>
+    <hyperlink ref="I7" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="I11" r:id="rId18"/>
+    <hyperlink ref="I17" r:id="rId19"/>
+    <hyperlink ref="J17" r:id="rId20"/>
+    <hyperlink ref="I18" r:id="rId21"/>
+    <hyperlink ref="I21" r:id="rId22"/>
+    <hyperlink ref="I22" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I28" r:id="rId25"/>
+    <hyperlink ref="I31" r:id="rId26"/>
+    <hyperlink ref="I32" r:id="rId27"/>
+    <hyperlink ref="I33" r:id="rId28"/>
+    <hyperlink ref="I34" r:id="rId29"/>
+    <hyperlink ref="I35" r:id="rId30"/>
+    <hyperlink ref="I39" r:id="rId31"/>
+    <hyperlink ref="I29" r:id="rId32"/>
+    <hyperlink ref="I30" r:id="rId33"/>
+    <hyperlink ref="I41" r:id="rId34"/>
+    <hyperlink ref="I43" r:id="rId35"/>
+    <hyperlink ref="I45" r:id="rId36"/>
+    <hyperlink ref="I47" r:id="rId37"/>
+    <hyperlink ref="I49" r:id="rId38"/>
+    <hyperlink ref="I50" r:id="rId39"/>
+    <hyperlink ref="I51" r:id="rId40"/>
+    <hyperlink ref="I44" r:id="rId41"/>
+    <hyperlink ref="I13" r:id="rId42"/>
+    <hyperlink ref="I15" r:id="rId43"/>
+    <hyperlink ref="I16" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I20" r:id="rId46"/>
+    <hyperlink ref="I19" r:id="rId47"/>
+    <hyperlink ref="I26" r:id="rId48"/>
+    <hyperlink ref="I23" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Bill of Materials/FusIon Pack.xlsx
+++ b/Bill of Materials/FusIon Pack.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4830" windowHeight="2805"/>
   </bookViews>
   <sheets>
     <sheet name="Fusion Pack Rev 0-1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <definedName name="FusIon_Pack" localSheetId="0">'Fusion Pack Rev 0-1'!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -484,9 +485,6 @@
     <t>5% Tolerance or Better, &gt;=0.6W</t>
   </si>
   <si>
-    <t>RMCF0805FG1M00</t>
-  </si>
-  <si>
     <t>1% Tolerance or Better</t>
   </si>
   <si>
@@ -628,9 +626,6 @@
     <t>So I'm not 100% sure, Vr 55~60V, &gt;=1.8kW Peak Power Pulse (look at TI application circuit for BQ76930 for an idea)</t>
   </si>
   <si>
-    <t>&gt;=5Vin, 250mA continuous output, 1117 regulator compatible</t>
-  </si>
-  <si>
     <t>SMAJ5920B-TP</t>
   </si>
   <si>
@@ -643,9 +638,6 @@
     <t>MC7805CD2TG</t>
   </si>
   <si>
-    <t>7805 Compatible footprint, &gt;=15Vin, 5Vout, 250mA continuous output current</t>
-  </si>
-  <si>
     <t>B5B-XH-A(LF)(SN)</t>
   </si>
   <si>
@@ -830,6 +822,15 @@
   </si>
   <si>
     <t>BQ7693000DBT[R]; BQ7693002DBT[R]; BQ7693006DBT[R]; (LDO Voltage shouldn't matter, Different I2C Addresses)</t>
+  </si>
+  <si>
+    <t>&gt;=5Vin, 250mA continuous output, 1117 regulator compatible, stable with ceramic in/output caps</t>
+  </si>
+  <si>
+    <t>7805 Compatible footprint, &gt;=15Vin, 5Vout, 250mA continuous output current, stable w/ ceramic caps</t>
+  </si>
+  <si>
+    <t>RMCF0805FT1K00</t>
   </si>
 </sst>
 </file>
@@ -839,7 +840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,8 +990,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,6 +1176,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1333,7 +1365,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1343,10 +1375,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1354,6 +1382,53 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1683,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1698,1676 +1773,1676 @@
     <col min="7" max="7" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="115" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>261</v>
+      <c r="J1" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4">
-        <v>8.5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f>C2*D2</f>
-        <v>85</v>
+        <f t="shared" ref="E2:E33" si="0">C2*D2</f>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f>C3*D3</f>
-        <v>3.5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>83</v>
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
+        <v>158</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4.2999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <f>C4*D4</f>
-        <v>0.68799999999999994</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>83</v>
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6.2E-2</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
-        <f>C5*D5</f>
-        <v>1.9219999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="20">
+        <v>7</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="20">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="32">
+        <v>31</v>
+      </c>
+      <c r="D9" s="33">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C6">
+      <c r="C10" s="20">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D10" s="21">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E6" s="4">
-        <f>C6*D6</f>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
         <v>1.71</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G10" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="20">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2</v>
+      </c>
+      <c r="D12" s="33">
+        <v>2.6</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="26">
+        <v>12</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H13" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="J13" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="26">
+        <v>16</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="26">
+        <v>6</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="26">
+        <v>5</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="38">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="E20" s="39">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1</v>
+      </c>
+      <c r="D22" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="39">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C7">
+      <c r="C23" s="26">
+        <v>11</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0.04</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2.14</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>2.14</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="26">
+        <v>13</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="26">
+        <v>3</v>
+      </c>
+      <c r="D27" s="27">
+        <v>3.3333300000000003E-2</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>9.9999900000000003E-2</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="26">
+        <v>11</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0.191</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="0"/>
+        <v>2.101</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="26">
+        <v>22</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="26">
+        <v>18</v>
+      </c>
+      <c r="D30" s="27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="26">
+        <v>15</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.254</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>3.81</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="26">
+        <v>10</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="26">
+        <v>31</v>
+      </c>
+      <c r="D33" s="27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="26">
+        <v>3</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" ref="E34:E65" si="1">C34*D34</f>
+        <v>1.71</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="26">
+        <v>1</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="26">
+        <v>7</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="1"/>
+        <v>1.218</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1</v>
+      </c>
+      <c r="D37" s="27">
+        <v>4.21</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" si="1"/>
+        <v>4.21</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.66</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="26">
+        <v>1</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="26">
+        <v>1</v>
+      </c>
+      <c r="D40" s="27">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="E7" s="4">
-        <f>C7*D7</f>
-        <v>0.78</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="E40" s="27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8">
+      <c r="J40" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="26">
+        <v>1</v>
+      </c>
+      <c r="D42" s="27">
+        <v>4.78</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="1"/>
+        <v>4.78</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="26">
+        <v>17</v>
+      </c>
+      <c r="D43" s="27">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="1"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="26">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
-        <f>C8*D8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9">
+      <c r="D44" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="26">
+        <v>3</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="1"/>
+        <v>1.83</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="26">
+        <v>12</v>
+      </c>
+      <c r="D46" s="27">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="1"/>
+        <v>11.747999999999999</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15">
+        <v>4.66</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="1"/>
+        <v>4.66</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="1"/>
+        <v>2.33</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="26">
+        <v>1</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="26">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="E9" s="4">
-        <f>C9*D9</f>
-        <v>5.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="4">
-        <f>C10*D10</f>
-        <v>2.16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E11" s="4">
-        <f>C11*D11</f>
-        <v>2.2879999999999998</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <f>C12*D12</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="F12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.43</v>
-      </c>
-      <c r="E13" s="4">
-        <f>C13*D13</f>
-        <v>0.43</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="E14" s="4">
-        <f>C14*D14</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="E15" s="4">
-        <f>C15*D15</f>
-        <v>0.66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.46</v>
-      </c>
-      <c r="E16" s="4">
-        <f>C16*D16</f>
-        <v>0.46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4.78</v>
-      </c>
-      <c r="E17" s="4">
-        <f>C17*D17</f>
-        <v>4.78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="D51" s="27">
+        <v>1.47</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" si="1"/>
+        <v>2.94</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="E18" s="4">
-        <f>C18*D18</f>
-        <v>0.27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>236</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="E19" s="4">
-        <f>C19*D19</f>
-        <v>0.21</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="4">
-        <f>C20*D20</f>
-        <v>0.25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>201</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="E21" s="4">
-        <f>C21*D21</f>
-        <v>0.45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="E22" s="4">
-        <f>C22*D22</f>
-        <v>0.44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2.14</v>
-      </c>
-      <c r="E23" s="4">
-        <f>C23*D23</f>
-        <v>2.14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>17</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E24" s="4">
-        <f>C24*D24</f>
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E25" s="4">
-        <f>C25*D25</f>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="E26" s="4">
-        <f>C26*D26</f>
-        <v>1.83</v>
-      </c>
-      <c r="F26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="E27" s="4">
-        <f>C27*D27</f>
-        <v>11.747999999999999</v>
-      </c>
-      <c r="F27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E28" s="4">
-        <f>C28*D28</f>
-        <v>0.26</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="E29" s="4">
-        <f>C29*D29</f>
-        <v>0.92</v>
-      </c>
-      <c r="F29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="4">
-        <v>3.3333300000000003E-2</v>
-      </c>
-      <c r="E30" s="4">
-        <f>C30*D30</f>
-        <v>9.9999900000000003E-2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0.191</v>
-      </c>
-      <c r="E31" s="4">
-        <f>C31*D31</f>
-        <v>2.101</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32">
-        <v>22</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E32" s="4">
-        <f>C32*D32</f>
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E33" s="4">
-        <f>C33*D33</f>
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.254</v>
-      </c>
-      <c r="E34" s="4">
-        <f>C34*D34</f>
-        <v>3.81</v>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E35" s="4">
-        <f>C35*D35</f>
-        <v>0.2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36">
-        <v>31</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2.7E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <f>C36*D36</f>
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <f>C37*D37</f>
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <f>C38*D38</f>
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I38" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E39" s="4">
-        <f>C39*D39</f>
-        <v>1.71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <f>C40*D40</f>
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" t="s">
-        <v>159</v>
-      </c>
-      <c r="J40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E41" s="4">
-        <f>C41*D41</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="E42" s="4">
-        <f>C42*D42</f>
-        <v>1.218</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
-        <v>4.66</v>
-      </c>
-      <c r="E43" s="4">
-        <f>C43*D43</f>
-        <v>4.66</v>
-      </c>
-      <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J43" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="E44" s="4">
-        <f>C44*D44</f>
-        <v>2.33</v>
-      </c>
-      <c r="F44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4">
-        <v>4.21</v>
-      </c>
-      <c r="E45" s="4">
-        <f>C45*D45</f>
-        <v>4.21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="E46" s="4">
-        <f>C46*D46</f>
-        <v>0.66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0.36</v>
-      </c>
-      <c r="E47" s="4">
-        <f>C47*D47</f>
-        <v>0.36</v>
-      </c>
-      <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="E48" s="4">
-        <f>C48*D48</f>
-        <v>0.54</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="H48" s="7" t="s">
+      <c r="J51" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0.49</v>
-      </c>
-      <c r="E49" s="4">
-        <f>C49*D49</f>
-        <v>0.49</v>
-      </c>
-      <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="E50" s="4">
-        <f>C50*D50</f>
-        <v>2.94</v>
-      </c>
-      <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <v>6</v>
-      </c>
-      <c r="E51" s="4">
-        <f>C51*D51</f>
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
         <f>SUM(E2:E51)</f>
         <v>166.79699989999995</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E54" s="4">
         <f>E53-85</f>
@@ -3376,58 +3451,58 @@
     </row>
   </sheetData>
   <sortState ref="A2:J54">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="I1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I27" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I48" r:id="rId3"/>
-    <hyperlink ref="J48" r:id="rId4"/>
-    <hyperlink ref="I14" r:id="rId5"/>
-    <hyperlink ref="I36" r:id="rId6"/>
-    <hyperlink ref="I12" r:id="rId7"/>
-    <hyperlink ref="I24" r:id="rId8"/>
-    <hyperlink ref="I42" r:id="rId9"/>
-    <hyperlink ref="I2" r:id="rId10"/>
-    <hyperlink ref="J2" r:id="rId11"/>
-    <hyperlink ref="I3" r:id="rId12"/>
-    <hyperlink ref="I4" r:id="rId13"/>
-    <hyperlink ref="I6" r:id="rId14"/>
-    <hyperlink ref="I7" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="I10" r:id="rId17"/>
-    <hyperlink ref="I11" r:id="rId18"/>
-    <hyperlink ref="I17" r:id="rId19"/>
-    <hyperlink ref="J17" r:id="rId20"/>
-    <hyperlink ref="I18" r:id="rId21"/>
-    <hyperlink ref="I21" r:id="rId22"/>
-    <hyperlink ref="I22" r:id="rId23"/>
-    <hyperlink ref="I25" r:id="rId24"/>
-    <hyperlink ref="I28" r:id="rId25"/>
-    <hyperlink ref="I31" r:id="rId26"/>
-    <hyperlink ref="I32" r:id="rId27"/>
-    <hyperlink ref="I33" r:id="rId28"/>
-    <hyperlink ref="I34" r:id="rId29"/>
-    <hyperlink ref="I35" r:id="rId30"/>
-    <hyperlink ref="I39" r:id="rId31"/>
-    <hyperlink ref="I29" r:id="rId32"/>
-    <hyperlink ref="I30" r:id="rId33"/>
-    <hyperlink ref="I41" r:id="rId34"/>
-    <hyperlink ref="I43" r:id="rId35"/>
-    <hyperlink ref="I45" r:id="rId36"/>
-    <hyperlink ref="I47" r:id="rId37"/>
-    <hyperlink ref="I49" r:id="rId38"/>
-    <hyperlink ref="I50" r:id="rId39"/>
-    <hyperlink ref="I51" r:id="rId40"/>
-    <hyperlink ref="I44" r:id="rId41"/>
-    <hyperlink ref="I13" r:id="rId42"/>
-    <hyperlink ref="I15" r:id="rId43"/>
-    <hyperlink ref="I16" r:id="rId44"/>
-    <hyperlink ref="I46" r:id="rId45"/>
-    <hyperlink ref="I20" r:id="rId46"/>
-    <hyperlink ref="I19" r:id="rId47"/>
-    <hyperlink ref="I26" r:id="rId48"/>
-    <hyperlink ref="I23" r:id="rId49"/>
+    <hyperlink ref="I46" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I50" r:id="rId3"/>
+    <hyperlink ref="J50" r:id="rId4"/>
+    <hyperlink ref="I17" r:id="rId5"/>
+    <hyperlink ref="I33" r:id="rId6"/>
+    <hyperlink ref="I15" r:id="rId7"/>
+    <hyperlink ref="I43" r:id="rId8"/>
+    <hyperlink ref="I36" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="I11" r:id="rId15"/>
+    <hyperlink ref="I12" r:id="rId16"/>
+    <hyperlink ref="I13" r:id="rId17"/>
+    <hyperlink ref="I14" r:id="rId18"/>
+    <hyperlink ref="I42" r:id="rId19"/>
+    <hyperlink ref="J42" r:id="rId20"/>
+    <hyperlink ref="I20" r:id="rId21"/>
+    <hyperlink ref="I41" r:id="rId22"/>
+    <hyperlink ref="I23" r:id="rId23"/>
+    <hyperlink ref="I44" r:id="rId24"/>
+    <hyperlink ref="I25" r:id="rId25"/>
+    <hyperlink ref="I28" r:id="rId26"/>
+    <hyperlink ref="I30" r:id="rId27"/>
+    <hyperlink ref="I31" r:id="rId28"/>
+    <hyperlink ref="I32" r:id="rId29"/>
+    <hyperlink ref="I34" r:id="rId30"/>
+    <hyperlink ref="I26" r:id="rId31"/>
+    <hyperlink ref="I27" r:id="rId32"/>
+    <hyperlink ref="I35" r:id="rId33"/>
+    <hyperlink ref="I47" r:id="rId34"/>
+    <hyperlink ref="I37" r:id="rId35"/>
+    <hyperlink ref="I49" r:id="rId36"/>
+    <hyperlink ref="I39" r:id="rId37"/>
+    <hyperlink ref="I51" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I48" r:id="rId40"/>
+    <hyperlink ref="I16" r:id="rId41"/>
+    <hyperlink ref="I18" r:id="rId42"/>
+    <hyperlink ref="I19" r:id="rId43"/>
+    <hyperlink ref="I38" r:id="rId44"/>
+    <hyperlink ref="I22" r:id="rId45"/>
+    <hyperlink ref="I21" r:id="rId46"/>
+    <hyperlink ref="I45" r:id="rId47"/>
+    <hyperlink ref="I24" r:id="rId48"/>
+    <hyperlink ref="I29" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId50"/>

--- a/Bill of Materials/FusIon Pack.xlsx
+++ b/Bill of Materials/FusIon Pack.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents - HDD\KiCad\FusIon Pack\Bill of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents - HDD\Projects\FusIon-Pack\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Fusion Pack Rev 0-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="FusIon_Pack" localSheetId="0">'Fusion Pack Rev 0-1'!$A$1:$J$53</definedName>
+    <definedName name="FusIon_Pack" localSheetId="0">'Fusion Pack Rev 0-1'!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="263">
   <si>
     <t>Designator</t>
   </si>
@@ -73,9 +73,6 @@
     <t>12V</t>
   </si>
   <si>
-    <t>R_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -127,12 +124,6 @@
     <t>PinHeader_2x05_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>USB_BOARD</t>
-  </si>
-  <si>
-    <t>Conn_01x05_Male</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>100K</t>
   </si>
   <si>
-    <t>R_2512_6332Metric_Pad1.52x3.35mm_HandSolder</t>
-  </si>
-  <si>
     <t>200R 1W</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>R78</t>
   </si>
   <si>
-    <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P7.62mm_Horizontal</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>R92,R95,R102</t>
-  </si>
-  <si>
     <t>20mR 3/4W</t>
   </si>
   <si>
@@ -199,27 +181,12 @@
     <t>15R</t>
   </si>
   <si>
-    <t>R100</t>
-  </si>
-  <si>
-    <t>1K 1%</t>
-  </si>
-  <si>
     <t>R107</t>
   </si>
   <si>
-    <t>R109,R116,R123</t>
-  </si>
-  <si>
     <t>10M</t>
   </si>
   <si>
-    <t>R111,R112,R114</t>
-  </si>
-  <si>
-    <t>10K 1%</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -232,63 +199,39 @@
     <t>U1</t>
   </si>
   <si>
-    <t>TSSOP-30_4.4x7.8mm_P0.5mm</t>
-  </si>
-  <si>
     <t>BQ76930</t>
   </si>
   <si>
     <t>U2</t>
   </si>
   <si>
-    <t>LQFP-64_10x10mm_P0.5mm</t>
-  </si>
-  <si>
     <t>STM32F072RBTx</t>
   </si>
   <si>
     <t>U4</t>
   </si>
   <si>
-    <t>SOT-223-3_TabPin2</t>
-  </si>
-  <si>
     <t>AP2114H-3.3TRG1</t>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
-    <t>SOIJ-8_5.3x5.3mm_P1.27mm</t>
-  </si>
-  <si>
     <t>W25Q16JVSSIQ</t>
   </si>
   <si>
-    <t>U7,U9</t>
-  </si>
-  <si>
-    <t>SOT-23-5_HandSoldering</t>
-  </si>
-  <si>
     <t>ZXCT108x</t>
   </si>
   <si>
     <t>U8</t>
   </si>
   <si>
-    <t>TSSOP-16-1EP_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
     <t>LTC3783</t>
   </si>
   <si>
     <t>U10</t>
   </si>
   <si>
-    <t>TSSOP-16_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
     <t>BQ76200</t>
   </si>
   <si>
@@ -313,9 +256,6 @@
     <t>D43</t>
   </si>
   <si>
-    <t>6V2</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -325,21 +265,12 @@
     <t>J4</t>
   </si>
   <si>
-    <t>JST_XH_B05B-XH-A_1x05_P2.50mm_Vertical</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>JST_XH_B04B-XH-A_1x04_P2.50mm_Vertical</t>
-  </si>
-  <si>
     <t>B4B-XH-A(LF)(SN)</t>
   </si>
   <si>
-    <t>Q19,Q22,Q23</t>
-  </si>
-  <si>
     <t>DMPH6050SK3</t>
   </si>
   <si>
@@ -355,9 +286,6 @@
     <t>TO-252-2 (D-PAK)</t>
   </si>
   <si>
-    <t>Notes For Replacement</t>
-  </si>
-  <si>
     <t>&gt;~75Vds, Similar Rds_on or lower, Similar Vgs_th or lower, Similar Qg or lower</t>
   </si>
   <si>
@@ -382,9 +310,6 @@
     <t>D39, D33, D36, D40, D41</t>
   </si>
   <si>
-    <t>R54, R22, R24, R26, R28, R30, R33, R35, R37, R39, R41, R48, R49, R57, R59, R60, R63, R64, R65, R67, R69, R70, R71, R72, R73, R80, R93, R97</t>
-  </si>
-  <si>
     <t>C17, C18, C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C21, C28, C29, C30, C32, C42, C43, C46, C47, C49, C53, C55, C60, C64, C65, C66, C67</t>
   </si>
   <si>
@@ -559,12 +484,6 @@
     <t>5% Tolerance or Better, &gt;=0.6W</t>
   </si>
   <si>
-    <t>R21, R23, R25, R27, R29, R31, R32, R34, R36, R38, R40, R42, R43, R55, R56, R68, R82, R85, R104, R108, R130</t>
-  </si>
-  <si>
-    <t>RMCF0805FG1M00</t>
-  </si>
-  <si>
     <t>1% Tolerance or Better</t>
   </si>
   <si>
@@ -590,6 +509,327 @@
   </si>
   <si>
     <t>R52, R53, R75, R76, R81, R106, R110, R115, R122, R129</t>
+  </si>
+  <si>
+    <t>RMCF0805JT100R</t>
+  </si>
+  <si>
+    <t>&gt;=1/10W, pretty much anything tbh</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Axial Resistor for alternative LED Button Voltage</t>
+  </si>
+  <si>
+    <t>Compensation resistor, will figure out value</t>
+  </si>
+  <si>
+    <t>PE2512FKE7W0R02L</t>
+  </si>
+  <si>
+    <t>&gt;=0.75W, 1%, &lt;75ppm/C temp co ideally</t>
+  </si>
+  <si>
+    <t>Opt. Gate resistor for boost converter, pretty much anything tbh</t>
+  </si>
+  <si>
+    <t>R21, R23, R25, R27, R29, R31, R32, R34, R36, R38, R40, R42, R43, R55, R56, R68, R82, R85, R100, R104, R108, R130</t>
+  </si>
+  <si>
+    <t>WSLF25122L000FEB</t>
+  </si>
+  <si>
+    <t>~4W Min, 1%, &lt;75ppm/C temp co ideally</t>
+  </si>
+  <si>
+    <t>1/4W Axial</t>
+  </si>
+  <si>
+    <t>R92, R95, R102</t>
+  </si>
+  <si>
+    <t>R109, R116, R123</t>
+  </si>
+  <si>
+    <t>RMCF0805JT10M0</t>
+  </si>
+  <si>
+    <t>Basically anything really</t>
+  </si>
+  <si>
+    <t>R54, R22, R24, R26, R28, R30, R33, R35, R37, R39, R41, R48, R49, R57, R59, R60, R63, R64, R65, R67, R69, R70, R71, R72, R73, R80, R93, R97, R111, R112, R114</t>
+  </si>
+  <si>
+    <t>PTS641SP25SMTR2LFS</t>
+  </si>
+  <si>
+    <t>Only for development--doesn't clear case lid</t>
+  </si>
+  <si>
+    <t>BQ7693006DBTR</t>
+  </si>
+  <si>
+    <t>TSSOP-30</t>
+  </si>
+  <si>
+    <t>LQFP-64</t>
+  </si>
+  <si>
+    <t>STM32F072RBT6</t>
+  </si>
+  <si>
+    <t>If ST makes pin compatible, peripheral compatible microcontrollers, it might work (may require code adaptation)</t>
+  </si>
+  <si>
+    <t>16MBit, Same pinout, Same functionality, ~8MHz SPI Capable</t>
+  </si>
+  <si>
+    <t>SOIC-8 (5.3mm)</t>
+  </si>
+  <si>
+    <t>SOT-25</t>
+  </si>
+  <si>
+    <t>U7, U9</t>
+  </si>
+  <si>
+    <t>ZXCT1084E5TA</t>
+  </si>
+  <si>
+    <t>&gt;=42V common mode MINIMUM; 25x gain; same pinout</t>
+  </si>
+  <si>
+    <t>TSSOP-16_EP</t>
+  </si>
+  <si>
+    <t>LTC3783EFE#PBF</t>
+  </si>
+  <si>
+    <t>TSSOP-16</t>
+  </si>
+  <si>
+    <t>BQ76200PWR</t>
+  </si>
+  <si>
+    <t>VSSAF510-M3/H</t>
+  </si>
+  <si>
+    <t>5A If, 50V Vr, Shottky, Low Vf Preferrable</t>
+  </si>
+  <si>
+    <t>3.0SMI58ATR</t>
+  </si>
+  <si>
+    <t>So I'm not 100% sure, Vr 55~60V, &gt;=1.8kW Peak Power Pulse (look at TI application circuit for BQ76930 for an idea)</t>
+  </si>
+  <si>
+    <t>SMAJ5920B-TP</t>
+  </si>
+  <si>
+    <t>6.2V</t>
+  </si>
+  <si>
+    <t>6.2V, &gt;=1.5W Rated Power</t>
+  </si>
+  <si>
+    <t>MC7805CD2TG</t>
+  </si>
+  <si>
+    <t>B5B-XH-A(LF)(SN)</t>
+  </si>
+  <si>
+    <t>05x2.5mm Header</t>
+  </si>
+  <si>
+    <t>04x2.5mm Header</t>
+  </si>
+  <si>
+    <t>5-pin JST-XH connector (just like for 4S LiPo balance connector)</t>
+  </si>
+  <si>
+    <t>4-pin JST-XH connector (just like for 3S LiPo balance connector)</t>
+  </si>
+  <si>
+    <t>Q19, Q22, Q23</t>
+  </si>
+  <si>
+    <t>DMPH6050SK3-13</t>
+  </si>
+  <si>
+    <t>&gt;=60Vds, &lt;=~80mOhm RdsOn, &gt;=12Vgs</t>
+  </si>
+  <si>
+    <t>5248-RC</t>
+  </si>
+  <si>
+    <t>Average Current Rating &gt;5A; Saturation Current &gt;5.5A (tested at 150kHz ideally)</t>
+  </si>
+  <si>
+    <t>US18650VTC4</t>
+  </si>
+  <si>
+    <t>C2012X7S2A105K125AE</t>
+  </si>
+  <si>
+    <t>885342207005</t>
+  </si>
+  <si>
+    <t>CL21B104KBFNNNE</t>
+  </si>
+  <si>
+    <t>GRT31CR61H106ME01L</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL21A475KPFNNNE</t>
+  </si>
+  <si>
+    <t>RNU1J330MDN1KX</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
+  </si>
+  <si>
+    <t>MM3Z5V1ST1G</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>1N4448W-TP</t>
+  </si>
+  <si>
+    <t>Micro Commercial Co</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductor</t>
+  </si>
+  <si>
+    <t>PDZ12BGWJ</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>SMC Diode Solutions</t>
+  </si>
+  <si>
+    <t>0456040.DR</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
+  </si>
+  <si>
+    <t>05x02</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>Japan Solderless Terminals</t>
+  </si>
+  <si>
+    <t>Changzhou Amass Elec.</t>
+  </si>
+  <si>
+    <t>Abracon LLC</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>IPD60N10S4L12ATMA1</t>
+  </si>
+  <si>
+    <t>Infineon Technologies</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>RMCF0805FT10K0</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERT-J1VR103G</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>ST Microelectronics</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>ATA6561-GAQW-N</t>
+  </si>
+  <si>
+    <t>Winbond Electronics</t>
+  </si>
+  <si>
+    <t>Linear Technology</t>
+  </si>
+  <si>
+    <t>BOM Total</t>
+  </si>
+  <si>
+    <t>w/o Batteries</t>
+  </si>
+  <si>
+    <t>Notes For Substitution</t>
+  </si>
+  <si>
+    <t>BQ7693000DBT[R]; BQ7693002DBT[R]; BQ7693006DBT[R]; (LDO Voltage shouldn't matter, Different I2C Addresses)</t>
+  </si>
+  <si>
+    <t>&gt;=5Vin, 250mA continuous output, 1117 regulator compatible, stable with ceramic in/output caps</t>
+  </si>
+  <si>
+    <t>7805 Compatible footprint, &gt;=15Vin, 5Vout, 250mA continuous output current, stable w/ ceramic caps</t>
+  </si>
+  <si>
+    <t>RMCF0805FT1K00</t>
   </si>
 </sst>
 </file>
@@ -599,7 +839,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,8 +982,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +1175,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1086,7 +1364,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1095,6 +1373,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="36" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1422,13 +1755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -1436,94 +1769,104 @@
     <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="115" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E33" si="0">C2*D2</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E53" si="0">C3*D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>107</v>
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1533,1140 +1876,1634 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.5</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="20">
+        <v>7</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="20">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="32">
+        <v>31</v>
+      </c>
+      <c r="D9" s="33">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="I6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="20">
+        <v>3</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>1.71</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="20">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15">
+      <c r="C12" s="32">
         <v>2</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="D12" s="33">
         <v>2.6</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E12" s="33">
         <f t="shared" si="0"/>
         <v>5.2</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17">
+      <c r="F12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="26">
         <v>12</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D13" s="27">
         <v>0.18</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E13" s="27">
         <f t="shared" si="0"/>
         <v>2.16</v>
       </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18">
+      <c r="F13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="26">
         <v>16</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D14" s="27">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>2.2879999999999998</v>
       </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="F14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="26">
+        <v>6</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="26">
+        <v>5</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.18</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.66</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
+      <c r="B20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="38">
         <v>1</v>
       </c>
-      <c r="D19" s="4">
-        <v>4.78</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>4.78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="D20" s="39">
         <v>0.27</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="39">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21">
+      <c r="F20" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="26">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="27">
+        <v>0.21</v>
+      </c>
+      <c r="E21" s="27">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22">
+        <v>0.21</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1</v>
+      </c>
+      <c r="D22" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="39">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="26">
         <v>11</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D23" s="27">
         <v>0.04</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="27">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="F23" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2.14</v>
+      </c>
+      <c r="E24" s="27">
         <f t="shared" si="0"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24">
+        <v>2.14</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="26">
         <v>13</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="27">
         <v>0.02</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="27">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0.92</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C25">
+      <c r="B27" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="26">
+        <v>3</v>
+      </c>
+      <c r="D27" s="27">
+        <v>3.3333300000000003E-2</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>9.9999900000000003E-2</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="26">
         <v>11</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D28" s="27">
         <v>0.191</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E28" s="27">
         <f t="shared" si="0"/>
         <v>2.101</v>
       </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26">
-        <v>21</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="F28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="26">
+        <v>22</v>
+      </c>
+      <c r="D29" s="27">
         <v>2.7E-2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E29" s="27">
         <f t="shared" si="0"/>
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="26">
         <v>18</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D30" s="27">
         <v>2.7E-2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E30" s="27">
         <f t="shared" si="0"/>
         <v>0.48599999999999999</v>
       </c>
-      <c r="F27" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28">
+      <c r="F30" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="26">
         <v>15</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D31" s="27">
         <v>0.254</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E31" s="27">
         <f t="shared" si="0"/>
         <v>3.81</v>
       </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F31" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="26">
+        <v>10</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="26">
+        <v>31</v>
+      </c>
+      <c r="D33" s="27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="26">
+        <v>3</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" ref="E34:E51" si="1">C34*D34</f>
+        <v>1.71</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="26">
+        <v>1</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="26">
+        <v>7</v>
+      </c>
+      <c r="D36" s="27">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="1"/>
+        <v>1.218</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="26">
+        <v>1</v>
+      </c>
+      <c r="D37" s="27">
+        <v>4.21</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" si="1"/>
+        <v>4.21</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" t="s">
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.66</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="26">
+        <v>1</v>
+      </c>
+      <c r="D39" s="27">
+        <v>0.49</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="26">
+        <v>1</v>
+      </c>
+      <c r="D40" s="27">
+        <v>6</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="26">
+        <v>1</v>
+      </c>
+      <c r="D42" s="27">
+        <v>4.78</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="1"/>
+        <v>4.78</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="26">
+        <v>17</v>
+      </c>
+      <c r="D43" s="27">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="1"/>
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="26">
+        <v>2</v>
+      </c>
+      <c r="D44" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="26">
+        <v>3</v>
+      </c>
+      <c r="D45" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="1"/>
+        <v>1.83</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="I45" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="26">
+        <v>12</v>
+      </c>
+      <c r="D46" s="27">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="1"/>
+        <v>11.747999999999999</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="14">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15">
+        <v>4.66</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="1"/>
+        <v>4.66</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="1"/>
+        <v>2.33</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="26">
+        <v>1</v>
+      </c>
+      <c r="D49" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="C51" s="26">
+        <v>2</v>
+      </c>
+      <c r="D51" s="27">
+        <v>1.47</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" si="1"/>
+        <v>2.94</v>
+      </c>
+      <c r="F51" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G51" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
+      <c r="J51" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="7">
+        <f>SUM(E2:E51)</f>
+        <v>166.79699989999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="4">
+        <f>E53-85</f>
+        <v>81.796999899999946</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J54">
+    <sortCondition ref="I1"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="I4" r:id="rId4"/>
-    <hyperlink ref="H5" r:id="rId5"/>
-    <hyperlink ref="H6" r:id="rId6"/>
-    <hyperlink ref="H7" r:id="rId7"/>
-    <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
-    <hyperlink ref="I10" r:id="rId11"/>
-    <hyperlink ref="H11" r:id="rId12"/>
-    <hyperlink ref="H12" r:id="rId13"/>
-    <hyperlink ref="H13" r:id="rId14"/>
-    <hyperlink ref="H14" r:id="rId15"/>
-    <hyperlink ref="H16" r:id="rId16"/>
-    <hyperlink ref="H17" r:id="rId17"/>
-    <hyperlink ref="H18" r:id="rId18"/>
-    <hyperlink ref="H19" r:id="rId19"/>
-    <hyperlink ref="I19" r:id="rId20"/>
-    <hyperlink ref="H20" r:id="rId21"/>
-    <hyperlink ref="H21" r:id="rId22"/>
-    <hyperlink ref="H22" r:id="rId23"/>
-    <hyperlink ref="H23" r:id="rId24"/>
-    <hyperlink ref="H24" r:id="rId25"/>
-    <hyperlink ref="H25" r:id="rId26"/>
-    <hyperlink ref="H26" r:id="rId27"/>
-    <hyperlink ref="H27" r:id="rId28"/>
-    <hyperlink ref="H28" r:id="rId29"/>
+    <hyperlink ref="I46" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I50" r:id="rId3"/>
+    <hyperlink ref="J50" r:id="rId4"/>
+    <hyperlink ref="I17" r:id="rId5"/>
+    <hyperlink ref="I33" r:id="rId6"/>
+    <hyperlink ref="I15" r:id="rId7"/>
+    <hyperlink ref="I43" r:id="rId8"/>
+    <hyperlink ref="I36" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="I11" r:id="rId15"/>
+    <hyperlink ref="I12" r:id="rId16"/>
+    <hyperlink ref="I13" r:id="rId17"/>
+    <hyperlink ref="I14" r:id="rId18"/>
+    <hyperlink ref="I42" r:id="rId19"/>
+    <hyperlink ref="J42" r:id="rId20"/>
+    <hyperlink ref="I20" r:id="rId21"/>
+    <hyperlink ref="I41" r:id="rId22"/>
+    <hyperlink ref="I23" r:id="rId23"/>
+    <hyperlink ref="I44" r:id="rId24"/>
+    <hyperlink ref="I25" r:id="rId25"/>
+    <hyperlink ref="I28" r:id="rId26"/>
+    <hyperlink ref="I30" r:id="rId27"/>
+    <hyperlink ref="I31" r:id="rId28"/>
+    <hyperlink ref="I32" r:id="rId29"/>
+    <hyperlink ref="I34" r:id="rId30"/>
+    <hyperlink ref="I26" r:id="rId31"/>
+    <hyperlink ref="I27" r:id="rId32"/>
+    <hyperlink ref="I35" r:id="rId33"/>
+    <hyperlink ref="I47" r:id="rId34"/>
+    <hyperlink ref="I37" r:id="rId35"/>
+    <hyperlink ref="I49" r:id="rId36"/>
+    <hyperlink ref="I39" r:id="rId37"/>
+    <hyperlink ref="I51" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I48" r:id="rId40"/>
+    <hyperlink ref="I16" r:id="rId41"/>
+    <hyperlink ref="I18" r:id="rId42"/>
+    <hyperlink ref="I19" r:id="rId43"/>
+    <hyperlink ref="I38" r:id="rId44"/>
+    <hyperlink ref="I22" r:id="rId45"/>
+    <hyperlink ref="I21" r:id="rId46"/>
+    <hyperlink ref="I45" r:id="rId47"/>
+    <hyperlink ref="I24" r:id="rId48"/>
+    <hyperlink ref="I29" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Bill of Materials/FusIon Pack.xlsx
+++ b/Bill of Materials/FusIon Pack.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Fusion Pack Rev 0-1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <definedName name="FusIon_Pack" localSheetId="0">'Fusion Pack Rev 0-1'!$A$1:$K$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1757,25 +1758,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="115" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>111</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>103</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>106</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>89</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>107</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>110</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>114</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>119</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>121</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>95</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>64</v>
       </c>
@@ -2275,7 +2276,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>88</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>67</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>70</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>25</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>74</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>73</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>132</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>77</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>137</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>46</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>169</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>143</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>164</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>154</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
         <v>150</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>155</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>172</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>168</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>48</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>98</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>53</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>71</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>57</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>60</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>27</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>23</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>96</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>135</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
         <v>203</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
         <v>90</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>51</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>62</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>55</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>7</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>183</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="7" t="s">
         <v>256</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>166.79699989999995</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="4" t="s">
         <v>257</v>
       </c>
